--- a/Templates/Stamp.xlsx
+++ b/Templates/Stamp.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\PythonScripts\stamps\TEST\production\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +39,6 @@
     <t>REJECTED - SEE REMARKS</t>
   </si>
   <si>
-    <t xml:space="preserve">CHECKING IS ONLY FOR CONFORMANCE WITH THE DESIGN CONCEPT OF THE PROJECT AND COMPLIANCE WITH THE INFORMATION GIVEN IN THE CONTRACT DOCUMENTS. CONTRACTOR IS RESPONSIBLE FOR DIMENSIONS TO BE CONFIRMED AND CORRELATED AT THE JOB SITEL FOR INFORMATION THAT PERTAINS SOLELY TO THE FABRICATION PROCESSES OR TO TECHNIQUES TO CONSTRUCTION; AND FOR COORDINATION OF THE WORK OF ALL TRADES. </t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -54,6 +46,9 @@
   </si>
   <si>
     <t>COMMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKING IS ONLY FOR CONFORMANCE WITH THE DESIGN CONCEPT OF THE PROJECT AND COMPLIANCE WITH THE INFORMATION GIVEN IN THE CONTRACT DOCUMENTS. CONTRACTOR IS RESPONSIBLE FOR DIMENSIONS TO BE CONFIRMED AND CORRELATED AT THE JOB SITE FOR INFORMATION THAT PERTAINS SOLELY TO THE FABRICATION PROCESSES OR TO TECHNIQUES TO CONSTRUCTION; AND FOR COORDINATION OF THE WORK OF ALL TRADES. </t>
   </si>
 </sst>
 </file>
@@ -482,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,237 +485,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:G45"/>
+  <dimension ref="A9:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-    </row>
-    <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" t="s">
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="16"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="8">
         <f ca="1">TODAY()</f>
-        <v>42467</v>
+        <v>42544</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A29:B36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Templates/Stamp.xlsx
+++ b/Templates/Stamp.xlsx
@@ -193,9 +193,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -204,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +488,7 @@
   <dimension ref="A9:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,34 +539,34 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -605,82 +605,82 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -706,7 +706,7 @@
       </c>
       <c r="B45" s="8">
         <f ca="1">TODAY()</f>
-        <v>42544</v>
+        <v>42594</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/Stamp.xlsx
+++ b/Templates/Stamp.xlsx
@@ -193,6 +193,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -201,9 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +488,7 @@
   <dimension ref="A9:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,34 +539,34 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="9"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="9"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -605,82 +605,82 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -706,7 +706,7 @@
       </c>
       <c r="B45" s="8">
         <f ca="1">TODAY()</f>
-        <v>42594</v>
+        <v>42544</v>
       </c>
     </row>
   </sheetData>
